--- a/data/output/FV2404_FV2310/UTILMD/55169.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55169.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21958" uniqueCount="1184">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21979" uniqueCount="1184">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3792,6 +3792,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1409" totalsRowShown="0">
+  <autoFilter ref="A1:U1409"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4081,7 +4111,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -60261,5 +60294,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55169.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55169.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25876" uniqueCount="2571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25710" uniqueCount="2571">
   <si>
     <t>#</t>
   </si>
@@ -14458,46 +14458,44 @@
       </c>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2" t="s">
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="L125" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M125" s="2" t="s">
+      <c r="L125" s="7"/>
+      <c r="M125" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N125" s="2" t="s">
+      <c r="N125" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2" t="s">
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="V125" s="2" t="s">
+      <c r="V125" s="5" t="s">
         <v>809</v>
       </c>
     </row>
@@ -14768,44 +14766,42 @@
       </c>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2" t="s">
+      <c r="C131" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M131" s="2" t="s">
+      <c r="K131" s="5"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N131" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2" t="s">
+      <c r="N131" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V131" s="2"/>
+      <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="2" t="s">
@@ -14997,9 +14993,7 @@
         <v>664</v>
       </c>
       <c r="K135" s="2"/>
-      <c r="L135" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L135" s="7"/>
       <c r="M135" s="2" t="s">
         <v>45</v>
       </c>
@@ -15026,44 +15020,42 @@
       <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="5" t="s">
         <v>1309</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2" t="s">
+      <c r="C136" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K136" s="2"/>
-      <c r="L136" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M136" s="2" t="s">
+      <c r="K136" s="5"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N136" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2" t="s">
+      <c r="N136" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V136" s="2"/>
+      <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="2" t="s">
@@ -15456,46 +15448,44 @@
       <c r="V144" s="9"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>1317</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N145" s="2" t="s">
+      <c r="N145" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="V145" s="5" t="s">
         <v>810</v>
       </c>
     </row>
@@ -15982,44 +15972,42 @@
       <c r="V154" s="2"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="5" t="s">
         <v>1327</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2" t="s">
+      <c r="C155" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K155" s="2"/>
-      <c r="L155" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M155" s="2" t="s">
+      <c r="K155" s="5"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N155" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2" t="s">
+      <c r="N155" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V155" s="2"/>
+      <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="2" t="s">
@@ -16230,44 +16218,42 @@
       <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2" t="s">
+      <c r="C160" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K160" s="2"/>
-      <c r="L160" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M160" s="2" t="s">
+      <c r="K160" s="5"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N160" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2" t="s">
+      <c r="N160" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V160" s="2"/>
+      <c r="V160" s="5"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="2" t="s">
@@ -16505,9 +16491,7 @@
         <v>686</v>
       </c>
       <c r="K165" s="2"/>
-      <c r="L165" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L165" s="7"/>
       <c r="M165" s="2" t="s">
         <v>51</v>
       </c>
@@ -16534,46 +16518,44 @@
       <c r="V165" s="2"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="5" t="s">
         <v>1338</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2" t="s">
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="L166" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M166" s="2" t="s">
+      <c r="L166" s="7"/>
+      <c r="M166" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="N166" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2" t="s">
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="V166" s="2" t="s">
+      <c r="V166" s="5" t="s">
         <v>810</v>
       </c>
     </row>
@@ -17064,46 +17046,44 @@
       <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="5" t="s">
         <v>1348</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2" t="s">
+      <c r="C176" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="L176" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M176" s="2" t="s">
+      <c r="L176" s="7"/>
+      <c r="M176" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N176" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="2"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
-      <c r="U176" s="2" t="s">
+      <c r="N176" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="V176" s="2" t="s">
+      <c r="V176" s="5" t="s">
         <v>812</v>
       </c>
     </row>
@@ -17266,44 +17246,42 @@
       <c r="V179" s="2"/>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2" t="s">
+      <c r="C180" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K180" s="2"/>
-      <c r="L180" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M180" s="2" t="s">
+      <c r="K180" s="5"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N180" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2" t="s">
+      <c r="N180" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V180" s="2"/>
+      <c r="V180" s="5"/>
     </row>
     <row r="181" spans="1:22">
       <c r="A181" s="2" t="s">
@@ -17541,9 +17519,7 @@
         <v>664</v>
       </c>
       <c r="K185" s="2"/>
-      <c r="L185" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L185" s="7"/>
       <c r="M185" s="2" t="s">
         <v>55</v>
       </c>
@@ -17624,44 +17600,42 @@
       <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="5" t="s">
         <v>1359</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2" t="s">
+      <c r="C187" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K187" s="2"/>
-      <c r="L187" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M187" s="2" t="s">
+      <c r="K187" s="5"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N187" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2" t="s">
+      <c r="N187" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="5"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V187" s="2"/>
+      <c r="V187" s="5"/>
     </row>
     <row r="188" spans="1:22">
       <c r="A188" s="2" t="s">
@@ -17795,9 +17769,7 @@
         <v>667</v>
       </c>
       <c r="K190" s="2"/>
-      <c r="L190" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L190" s="7"/>
       <c r="M190" s="2" t="s">
         <v>56</v>
       </c>
@@ -17824,46 +17796,44 @@
       <c r="V190" s="2"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="5" t="s">
         <v>1363</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2" t="s">
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="L191" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M191" s="2" t="s">
+      <c r="L191" s="7"/>
+      <c r="M191" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N191" s="2" t="s">
+      <c r="N191" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2" t="s">
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V191" s="2" t="s">
+      <c r="V191" s="5" t="s">
         <v>813</v>
       </c>
     </row>
@@ -18134,46 +18104,44 @@
       </c>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2" t="s">
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="K197" s="2" t="s">
+      <c r="K197" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="L197" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M197" s="2" t="s">
+      <c r="L197" s="7"/>
+      <c r="M197" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N197" s="2" t="s">
+      <c r="N197" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2" t="s">
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="V197" s="2" t="s">
+      <c r="V197" s="5" t="s">
         <v>814</v>
       </c>
     </row>
@@ -18309,9 +18277,7 @@
         <v>664</v>
       </c>
       <c r="K200" s="2"/>
-      <c r="L200" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L200" s="7"/>
       <c r="M200" s="2" t="s">
         <v>59</v>
       </c>
@@ -18483,9 +18449,7 @@
       <c r="K203" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="L203" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L203" s="7"/>
       <c r="M203" s="2" t="s">
         <v>59</v>
       </c>
@@ -18778,44 +18742,42 @@
       <c r="V208" s="2"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="5" t="s">
         <v>1381</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2" t="s">
+      <c r="C209" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K209" s="2"/>
-      <c r="L209" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M209" s="2" t="s">
+      <c r="K209" s="5"/>
+      <c r="L209" s="7"/>
+      <c r="M209" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N209" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2" t="s">
+      <c r="N209" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+      <c r="R209" s="5"/>
+      <c r="S209" s="5"/>
+      <c r="T209" s="5"/>
+      <c r="U209" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V209" s="2"/>
+      <c r="V209" s="5"/>
     </row>
     <row r="210" spans="1:22">
       <c r="A210" s="2" t="s">
@@ -19007,9 +18969,7 @@
         <v>664</v>
       </c>
       <c r="K213" s="2"/>
-      <c r="L213" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L213" s="7"/>
       <c r="M213" s="2" t="s">
         <v>61</v>
       </c>
@@ -19036,44 +18996,42 @@
       <c r="V213" s="2"/>
     </row>
     <row r="214" spans="1:22">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="5" t="s">
         <v>1386</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2" t="s">
+      <c r="C214" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K214" s="2"/>
-      <c r="L214" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M214" s="2" t="s">
+      <c r="K214" s="5"/>
+      <c r="L214" s="7"/>
+      <c r="M214" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N214" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2" t="s">
+      <c r="N214" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O214" s="5"/>
+      <c r="P214" s="5"/>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="5"/>
+      <c r="S214" s="5"/>
+      <c r="T214" s="5"/>
+      <c r="U214" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V214" s="2"/>
+      <c r="V214" s="5"/>
     </row>
     <row r="215" spans="1:22">
       <c r="A215" s="2" t="s">
@@ -19751,9 +19709,7 @@
         <v>664</v>
       </c>
       <c r="K227" s="2"/>
-      <c r="L227" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L227" s="7"/>
       <c r="M227" s="2" t="s">
         <v>47</v>
       </c>
@@ -19908,44 +19864,42 @@
       <c r="V230" s="9"/>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="5" t="s">
         <v>1403</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2" t="s">
+      <c r="C231" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K231" s="2"/>
-      <c r="L231" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M231" s="2" t="s">
+      <c r="K231" s="5"/>
+      <c r="L231" s="7"/>
+      <c r="M231" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N231" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="Q231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="U231" s="2" t="s">
+      <c r="N231" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O231" s="5"/>
+      <c r="P231" s="5"/>
+      <c r="Q231" s="5"/>
+      <c r="R231" s="5"/>
+      <c r="S231" s="5"/>
+      <c r="T231" s="5"/>
+      <c r="U231" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V231" s="2"/>
+      <c r="V231" s="5"/>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="2" t="s">
@@ -20183,9 +20137,7 @@
         <v>664</v>
       </c>
       <c r="K236" s="2"/>
-      <c r="L236" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L236" s="7"/>
       <c r="M236" s="2" t="s">
         <v>64</v>
       </c>
@@ -20239,9 +20191,7 @@
         <v>664</v>
       </c>
       <c r="K237" s="2"/>
-      <c r="L237" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L237" s="7"/>
       <c r="M237" s="2" t="s">
         <v>64</v>
       </c>
@@ -20295,9 +20245,7 @@
         <v>664</v>
       </c>
       <c r="K238" s="2"/>
-      <c r="L238" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L238" s="7"/>
       <c r="M238" s="2" t="s">
         <v>64</v>
       </c>
@@ -20324,44 +20272,42 @@
       <c r="V238" s="2"/>
     </row>
     <row r="239" spans="1:22">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="5" t="s">
         <v>1411</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2" t="s">
+      <c r="C239" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K239" s="2"/>
-      <c r="L239" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M239" s="2" t="s">
+      <c r="K239" s="5"/>
+      <c r="L239" s="7"/>
+      <c r="M239" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N239" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2" t="s">
+      <c r="N239" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O239" s="5"/>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
+      <c r="R239" s="5"/>
+      <c r="S239" s="5"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V239" s="2"/>
+      <c r="V239" s="5"/>
     </row>
     <row r="240" spans="1:22">
       <c r="A240" s="2" t="s">
@@ -20599,9 +20545,7 @@
         <v>664</v>
       </c>
       <c r="K244" s="2"/>
-      <c r="L244" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L244" s="7"/>
       <c r="M244" s="2" t="s">
         <v>65</v>
       </c>
@@ -20628,44 +20572,42 @@
       <c r="V244" s="2"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="5" t="s">
         <v>1417</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2" t="s">
+      <c r="C245" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K245" s="2"/>
-      <c r="L245" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M245" s="2" t="s">
+      <c r="K245" s="5"/>
+      <c r="L245" s="7"/>
+      <c r="M245" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N245" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O245" s="2"/>
-      <c r="P245" s="2"/>
-      <c r="Q245" s="2"/>
-      <c r="R245" s="2"/>
-      <c r="S245" s="2"/>
-      <c r="T245" s="2"/>
-      <c r="U245" s="2" t="s">
+      <c r="N245" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+      <c r="R245" s="5"/>
+      <c r="S245" s="5"/>
+      <c r="T245" s="5"/>
+      <c r="U245" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V245" s="2"/>
+      <c r="V245" s="5"/>
     </row>
     <row r="246" spans="1:22">
       <c r="A246" s="2" t="s">
@@ -20857,9 +20799,7 @@
         <v>664</v>
       </c>
       <c r="K249" s="2"/>
-      <c r="L249" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L249" s="7"/>
       <c r="M249" s="2" t="s">
         <v>66</v>
       </c>
@@ -20886,44 +20826,42 @@
       <c r="V249" s="2"/>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2" t="s">
+      <c r="C250" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K250" s="2"/>
-      <c r="L250" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M250" s="2" t="s">
+      <c r="K250" s="5"/>
+      <c r="L250" s="7"/>
+      <c r="M250" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N250" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2" t="s">
+      <c r="N250" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V250" s="2"/>
+      <c r="V250" s="5"/>
     </row>
     <row r="251" spans="1:22">
       <c r="A251" s="2" t="s">
@@ -21057,9 +20995,7 @@
         <v>664</v>
       </c>
       <c r="K253" s="2"/>
-      <c r="L253" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L253" s="7"/>
       <c r="M253" s="2" t="s">
         <v>67</v>
       </c>
@@ -21221,9 +21157,7 @@
         <v>667</v>
       </c>
       <c r="K256" s="2"/>
-      <c r="L256" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L256" s="7"/>
       <c r="M256" s="2" t="s">
         <v>68</v>
       </c>
@@ -21277,9 +21211,7 @@
         <v>667</v>
       </c>
       <c r="K257" s="2"/>
-      <c r="L257" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L257" s="7"/>
       <c r="M257" s="2" t="s">
         <v>68</v>
       </c>
@@ -21306,46 +21238,44 @@
       <c r="V257" s="2"/>
     </row>
     <row r="258" spans="1:22">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="5" t="s">
         <v>1430</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2" t="s">
+      <c r="C258" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="K258" s="2" t="s">
+      <c r="K258" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="L258" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M258" s="2" t="s">
+      <c r="L258" s="7"/>
+      <c r="M258" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N258" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
-      <c r="Q258" s="2"/>
-      <c r="R258" s="2"/>
-      <c r="S258" s="2"/>
-      <c r="T258" s="2"/>
-      <c r="U258" s="2" t="s">
+      <c r="N258" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="V258" s="2" t="s">
+      <c r="V258" s="5" t="s">
         <v>823</v>
       </c>
     </row>
@@ -21585,9 +21515,7 @@
         <v>664</v>
       </c>
       <c r="K263" s="2"/>
-      <c r="L263" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L263" s="7"/>
       <c r="M263" s="2" t="s">
         <v>70</v>
       </c>
@@ -21641,9 +21569,7 @@
         <v>664</v>
       </c>
       <c r="K264" s="2"/>
-      <c r="L264" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L264" s="7"/>
       <c r="M264" s="2" t="s">
         <v>70</v>
       </c>
@@ -21697,9 +21623,7 @@
         <v>664</v>
       </c>
       <c r="K265" s="2"/>
-      <c r="L265" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L265" s="7"/>
       <c r="M265" s="2" t="s">
         <v>70</v>
       </c>
@@ -21753,9 +21677,7 @@
         <v>664</v>
       </c>
       <c r="K266" s="2"/>
-      <c r="L266" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L266" s="7"/>
       <c r="M266" s="2" t="s">
         <v>70</v>
       </c>
@@ -21782,46 +21704,44 @@
       <c r="V266" s="2"/>
     </row>
     <row r="267" spans="1:22">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="5" t="s">
         <v>1438</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2" t="s">
+      <c r="C267" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="K267" s="2" t="s">
+      <c r="K267" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="L267" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M267" s="2" t="s">
+      <c r="L267" s="7"/>
+      <c r="M267" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N267" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-      <c r="Q267" s="2"/>
-      <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
-      <c r="T267" s="2"/>
-      <c r="U267" s="2" t="s">
+      <c r="N267" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O267" s="5"/>
+      <c r="P267" s="5"/>
+      <c r="Q267" s="5"/>
+      <c r="R267" s="5"/>
+      <c r="S267" s="5"/>
+      <c r="T267" s="5"/>
+      <c r="U267" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="V267" s="2" t="s">
+      <c r="V267" s="5" t="s">
         <v>824</v>
       </c>
     </row>
@@ -22015,9 +21935,7 @@
         <v>664</v>
       </c>
       <c r="K271" s="2"/>
-      <c r="L271" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L271" s="7"/>
       <c r="M271" s="2" t="s">
         <v>71</v>
       </c>
@@ -22044,46 +21962,44 @@
       <c r="V271" s="2"/>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2" t="s">
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="K272" s="2" t="s">
+      <c r="K272" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="L272" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M272" s="2" t="s">
+      <c r="L272" s="7"/>
+      <c r="M272" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N272" s="2" t="s">
+      <c r="N272" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
-      <c r="Q272" s="2"/>
-      <c r="R272" s="2"/>
-      <c r="S272" s="2"/>
-      <c r="T272" s="2"/>
-      <c r="U272" s="2" t="s">
+      <c r="O272" s="5"/>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="5"/>
+      <c r="R272" s="5"/>
+      <c r="S272" s="5"/>
+      <c r="T272" s="5"/>
+      <c r="U272" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="V272" s="2" t="s">
+      <c r="V272" s="5" t="s">
         <v>825</v>
       </c>
     </row>
@@ -22574,46 +22490,44 @@
       <c r="V281" s="2"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="5" t="s">
         <v>1453</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="2" t="s">
+      <c r="C282" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="K282" s="2" t="s">
+      <c r="K282" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="L282" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M282" s="2" t="s">
+      <c r="L282" s="7"/>
+      <c r="M282" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N282" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
-      <c r="Q282" s="2"/>
-      <c r="R282" s="2"/>
-      <c r="S282" s="2"/>
-      <c r="T282" s="2"/>
-      <c r="U282" s="2" t="s">
+      <c r="N282" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O282" s="5"/>
+      <c r="P282" s="5"/>
+      <c r="Q282" s="5"/>
+      <c r="R282" s="5"/>
+      <c r="S282" s="5"/>
+      <c r="T282" s="5"/>
+      <c r="U282" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="V282" s="2" t="s">
+      <c r="V282" s="5" t="s">
         <v>827</v>
       </c>
     </row>
@@ -22751,9 +22665,7 @@
       <c r="K285" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="L285" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L285" s="7"/>
       <c r="M285" s="2" t="s">
         <v>73</v>
       </c>
@@ -22840,44 +22752,42 @@
       </c>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="5" t="s">
         <v>1458</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2" t="s">
+      <c r="C287" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K287" s="2"/>
-      <c r="L287" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M287" s="2" t="s">
+      <c r="K287" s="5"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N287" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2" t="s">
+      <c r="N287" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V287" s="2"/>
+      <c r="V287" s="5"/>
     </row>
     <row r="288" spans="1:22">
       <c r="A288" s="2" t="s">
@@ -23115,9 +23025,7 @@
         <v>708</v>
       </c>
       <c r="K292" s="2"/>
-      <c r="L292" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L292" s="7"/>
       <c r="M292" s="2" t="s">
         <v>75</v>
       </c>
@@ -23171,9 +23079,7 @@
         <v>709</v>
       </c>
       <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L293" s="7"/>
       <c r="M293" s="2" t="s">
         <v>75</v>
       </c>
@@ -23227,9 +23133,7 @@
         <v>710</v>
       </c>
       <c r="K294" s="2"/>
-      <c r="L294" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L294" s="7"/>
       <c r="M294" s="2" t="s">
         <v>75</v>
       </c>
@@ -23283,9 +23187,7 @@
         <v>711</v>
       </c>
       <c r="K295" s="2"/>
-      <c r="L295" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L295" s="7"/>
       <c r="M295" s="2" t="s">
         <v>75</v>
       </c>
@@ -23339,9 +23241,7 @@
         <v>712</v>
       </c>
       <c r="K296" s="2"/>
-      <c r="L296" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L296" s="7"/>
       <c r="M296" s="2" t="s">
         <v>75</v>
       </c>
@@ -23368,44 +23268,42 @@
       <c r="V296" s="2"/>
     </row>
     <row r="297" spans="1:22">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2" t="s">
+      <c r="C297" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K297" s="2"/>
-      <c r="L297" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M297" s="2" t="s">
+      <c r="K297" s="5"/>
+      <c r="L297" s="7"/>
+      <c r="M297" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N297" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
-      <c r="Q297" s="2"/>
-      <c r="R297" s="2"/>
-      <c r="S297" s="2"/>
-      <c r="T297" s="2"/>
-      <c r="U297" s="2" t="s">
+      <c r="N297" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V297" s="2"/>
+      <c r="V297" s="5"/>
     </row>
     <row r="298" spans="1:22">
       <c r="A298" s="2" t="s">
@@ -23643,9 +23541,7 @@
         <v>714</v>
       </c>
       <c r="K302" s="2"/>
-      <c r="L302" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L302" s="7"/>
       <c r="M302" s="2" t="s">
         <v>75</v>
       </c>
@@ -23699,9 +23595,7 @@
         <v>709</v>
       </c>
       <c r="K303" s="2"/>
-      <c r="L303" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L303" s="7"/>
       <c r="M303" s="2" t="s">
         <v>75</v>
       </c>
@@ -23755,9 +23649,7 @@
         <v>715</v>
       </c>
       <c r="K304" s="2"/>
-      <c r="L304" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L304" s="7"/>
       <c r="M304" s="2" t="s">
         <v>75</v>
       </c>
@@ -23811,9 +23703,7 @@
         <v>716</v>
       </c>
       <c r="K305" s="2"/>
-      <c r="L305" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L305" s="7"/>
       <c r="M305" s="2" t="s">
         <v>75</v>
       </c>
@@ -23867,9 +23757,7 @@
         <v>712</v>
       </c>
       <c r="K306" s="2"/>
-      <c r="L306" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L306" s="7"/>
       <c r="M306" s="2" t="s">
         <v>75</v>
       </c>
@@ -23896,46 +23784,44 @@
       <c r="V306" s="2"/>
     </row>
     <row r="307" spans="1:22">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2" t="s">
+      <c r="C307" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="K307" s="2" t="s">
+      <c r="K307" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="L307" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M307" s="2" t="s">
+      <c r="L307" s="7"/>
+      <c r="M307" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N307" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
-      <c r="Q307" s="2"/>
-      <c r="R307" s="2"/>
-      <c r="S307" s="2"/>
-      <c r="T307" s="2"/>
-      <c r="U307" s="2" t="s">
+      <c r="N307" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="V307" s="2" t="s">
+      <c r="V307" s="5" t="s">
         <v>830</v>
       </c>
     </row>
@@ -24175,9 +24061,7 @@
         <v>686</v>
       </c>
       <c r="K312" s="2"/>
-      <c r="L312" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L312" s="7"/>
       <c r="M312" s="2" t="s">
         <v>75</v>
       </c>
@@ -24204,46 +24088,44 @@
       <c r="V312" s="2"/>
     </row>
     <row r="313" spans="1:22">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="5" t="s">
         <v>1482</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2" t="s">
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="K313" s="2" t="s">
+      <c r="K313" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="L313" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M313" s="2" t="s">
+      <c r="L313" s="7"/>
+      <c r="M313" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N313" s="2" t="s">
+      <c r="N313" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
-      <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
-      <c r="S313" s="2"/>
-      <c r="T313" s="2"/>
-      <c r="U313" s="2" t="s">
+      <c r="O313" s="5"/>
+      <c r="P313" s="5"/>
+      <c r="Q313" s="5"/>
+      <c r="R313" s="5"/>
+      <c r="S313" s="5"/>
+      <c r="T313" s="5"/>
+      <c r="U313" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="V313" s="2" t="s">
+      <c r="V313" s="5" t="s">
         <v>831</v>
       </c>
     </row>
@@ -24734,46 +24616,44 @@
       <c r="V322" s="2"/>
     </row>
     <row r="323" spans="1:22">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C323" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
-      <c r="I323" s="2"/>
-      <c r="J323" s="2" t="s">
+      <c r="C323" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="K323" s="2" t="s">
+      <c r="K323" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="L323" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M323" s="2" t="s">
+      <c r="L323" s="7"/>
+      <c r="M323" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N323" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="Q323" s="2"/>
-      <c r="R323" s="2"/>
-      <c r="S323" s="2"/>
-      <c r="T323" s="2"/>
-      <c r="U323" s="2" t="s">
+      <c r="N323" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O323" s="5"/>
+      <c r="P323" s="5"/>
+      <c r="Q323" s="5"/>
+      <c r="R323" s="5"/>
+      <c r="S323" s="5"/>
+      <c r="T323" s="5"/>
+      <c r="U323" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="V323" s="2" t="s">
+      <c r="V323" s="5" t="s">
         <v>833</v>
       </c>
     </row>
@@ -25013,9 +24893,7 @@
         <v>664</v>
       </c>
       <c r="K328" s="2"/>
-      <c r="L328" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L328" s="7"/>
       <c r="M328" s="2" t="s">
         <v>80</v>
       </c>
@@ -25069,9 +24947,7 @@
         <v>664</v>
       </c>
       <c r="K329" s="2"/>
-      <c r="L329" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L329" s="7"/>
       <c r="M329" s="2" t="s">
         <v>80</v>
       </c>
@@ -25125,9 +25001,7 @@
         <v>664</v>
       </c>
       <c r="K330" s="2"/>
-      <c r="L330" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L330" s="7"/>
       <c r="M330" s="2" t="s">
         <v>80</v>
       </c>
@@ -25154,46 +25028,44 @@
       <c r="V330" s="2"/>
     </row>
     <row r="331" spans="1:22">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="5" t="s">
         <v>1500</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-      <c r="J331" s="2" t="s">
+      <c r="C331" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="K331" s="2" t="s">
+      <c r="K331" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="L331" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M331" s="2" t="s">
+      <c r="L331" s="7"/>
+      <c r="M331" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N331" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O331" s="2"/>
-      <c r="P331" s="2"/>
-      <c r="Q331" s="2"/>
-      <c r="R331" s="2"/>
-      <c r="S331" s="2"/>
-      <c r="T331" s="2"/>
-      <c r="U331" s="2" t="s">
+      <c r="N331" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O331" s="5"/>
+      <c r="P331" s="5"/>
+      <c r="Q331" s="5"/>
+      <c r="R331" s="5"/>
+      <c r="S331" s="5"/>
+      <c r="T331" s="5"/>
+      <c r="U331" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="V331" s="2" t="s">
+      <c r="V331" s="5" t="s">
         <v>834</v>
       </c>
     </row>
@@ -25670,44 +25542,42 @@
       <c r="V342" s="9"/>
     </row>
     <row r="343" spans="1:22">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="5" t="s">
         <v>1512</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-      <c r="I343" s="2"/>
-      <c r="J343" s="2" t="s">
+      <c r="C343" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K343" s="2"/>
-      <c r="L343" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M343" s="2" t="s">
+      <c r="K343" s="5"/>
+      <c r="L343" s="7"/>
+      <c r="M343" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N343" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O343" s="2"/>
-      <c r="P343" s="2"/>
-      <c r="Q343" s="2"/>
-      <c r="R343" s="2"/>
-      <c r="S343" s="2"/>
-      <c r="T343" s="2"/>
-      <c r="U343" s="2" t="s">
+      <c r="N343" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O343" s="5"/>
+      <c r="P343" s="5"/>
+      <c r="Q343" s="5"/>
+      <c r="R343" s="5"/>
+      <c r="S343" s="5"/>
+      <c r="T343" s="5"/>
+      <c r="U343" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V343" s="2"/>
+      <c r="V343" s="5"/>
     </row>
     <row r="344" spans="1:22">
       <c r="A344" s="2" t="s">
@@ -25945,9 +25815,7 @@
         <v>724</v>
       </c>
       <c r="K348" s="2"/>
-      <c r="L348" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L348" s="7"/>
       <c r="M348" s="2" t="s">
         <v>51</v>
       </c>
@@ -26001,9 +25869,7 @@
         <v>725</v>
       </c>
       <c r="K349" s="2"/>
-      <c r="L349" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L349" s="7"/>
       <c r="M349" s="2" t="s">
         <v>51</v>
       </c>
@@ -26057,9 +25923,7 @@
         <v>726</v>
       </c>
       <c r="K350" s="2"/>
-      <c r="L350" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L350" s="7"/>
       <c r="M350" s="2" t="s">
         <v>51</v>
       </c>
@@ -26113,9 +25977,7 @@
         <v>727</v>
       </c>
       <c r="K351" s="2"/>
-      <c r="L351" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L351" s="7"/>
       <c r="M351" s="2" t="s">
         <v>51</v>
       </c>
@@ -26169,9 +26031,7 @@
         <v>712</v>
       </c>
       <c r="K352" s="2"/>
-      <c r="L352" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L352" s="7"/>
       <c r="M352" s="2" t="s">
         <v>51</v>
       </c>
@@ -26198,44 +26058,42 @@
       <c r="V352" s="2"/>
     </row>
     <row r="353" spans="1:22">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="5" t="s">
         <v>1522</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
-      <c r="G353" s="2"/>
-      <c r="H353" s="2"/>
-      <c r="I353" s="2"/>
-      <c r="J353" s="2" t="s">
+      <c r="C353" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="5"/>
+      <c r="J353" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K353" s="2"/>
-      <c r="L353" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M353" s="2" t="s">
+      <c r="K353" s="5"/>
+      <c r="L353" s="7"/>
+      <c r="M353" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N353" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O353" s="2"/>
-      <c r="P353" s="2"/>
-      <c r="Q353" s="2"/>
-      <c r="R353" s="2"/>
-      <c r="S353" s="2"/>
-      <c r="T353" s="2"/>
-      <c r="U353" s="2" t="s">
+      <c r="N353" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O353" s="5"/>
+      <c r="P353" s="5"/>
+      <c r="Q353" s="5"/>
+      <c r="R353" s="5"/>
+      <c r="S353" s="5"/>
+      <c r="T353" s="5"/>
+      <c r="U353" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V353" s="2"/>
+      <c r="V353" s="5"/>
     </row>
     <row r="354" spans="1:22">
       <c r="A354" s="2" t="s">
@@ -26473,9 +26331,7 @@
         <v>729</v>
       </c>
       <c r="K358" s="2"/>
-      <c r="L358" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L358" s="7"/>
       <c r="M358" s="2" t="s">
         <v>51</v>
       </c>
@@ -26529,9 +26385,7 @@
         <v>725</v>
       </c>
       <c r="K359" s="2"/>
-      <c r="L359" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L359" s="7"/>
       <c r="M359" s="2" t="s">
         <v>51</v>
       </c>
@@ -26585,9 +26439,7 @@
         <v>730</v>
       </c>
       <c r="K360" s="2"/>
-      <c r="L360" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L360" s="7"/>
       <c r="M360" s="2" t="s">
         <v>51</v>
       </c>
@@ -26641,9 +26493,7 @@
         <v>731</v>
       </c>
       <c r="K361" s="2"/>
-      <c r="L361" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L361" s="7"/>
       <c r="M361" s="2" t="s">
         <v>51</v>
       </c>
@@ -26697,9 +26547,7 @@
         <v>712</v>
       </c>
       <c r="K362" s="2"/>
-      <c r="L362" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L362" s="7"/>
       <c r="M362" s="2" t="s">
         <v>51</v>
       </c>
@@ -26726,46 +26574,44 @@
       <c r="V362" s="2"/>
     </row>
     <row r="363" spans="1:22">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C363" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
-      <c r="G363" s="2"/>
-      <c r="H363" s="2"/>
-      <c r="I363" s="2"/>
-      <c r="J363" s="2" t="s">
+      <c r="C363" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="K363" s="2" t="s">
+      <c r="K363" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="L363" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M363" s="2" t="s">
+      <c r="L363" s="7"/>
+      <c r="M363" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N363" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O363" s="2"/>
-      <c r="P363" s="2"/>
-      <c r="Q363" s="2"/>
-      <c r="R363" s="2"/>
-      <c r="S363" s="2"/>
-      <c r="T363" s="2"/>
-      <c r="U363" s="2" t="s">
+      <c r="N363" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O363" s="5"/>
+      <c r="P363" s="5"/>
+      <c r="Q363" s="5"/>
+      <c r="R363" s="5"/>
+      <c r="S363" s="5"/>
+      <c r="T363" s="5"/>
+      <c r="U363" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="V363" s="2" t="s">
+      <c r="V363" s="5" t="s">
         <v>836</v>
       </c>
     </row>
@@ -27005,9 +26851,7 @@
         <v>686</v>
       </c>
       <c r="K368" s="2"/>
-      <c r="L368" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L368" s="7"/>
       <c r="M368" s="2" t="s">
         <v>51</v>
       </c>
@@ -27034,46 +26878,44 @@
       <c r="V368" s="2"/>
     </row>
     <row r="369" spans="1:22">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
-      <c r="H369" s="2"/>
-      <c r="I369" s="2"/>
-      <c r="J369" s="2" t="s">
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="K369" s="2" t="s">
+      <c r="K369" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="L369" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M369" s="2" t="s">
+      <c r="L369" s="7"/>
+      <c r="M369" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N369" s="2" t="s">
+      <c r="N369" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O369" s="2"/>
-      <c r="P369" s="2"/>
-      <c r="Q369" s="2"/>
-      <c r="R369" s="2"/>
-      <c r="S369" s="2"/>
-      <c r="T369" s="2"/>
-      <c r="U369" s="2" t="s">
+      <c r="O369" s="5"/>
+      <c r="P369" s="5"/>
+      <c r="Q369" s="5"/>
+      <c r="R369" s="5"/>
+      <c r="S369" s="5"/>
+      <c r="T369" s="5"/>
+      <c r="U369" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="V369" s="2" t="s">
+      <c r="V369" s="5" t="s">
         <v>837</v>
       </c>
     </row>
@@ -27560,44 +27402,42 @@
       <c r="V378" s="2"/>
     </row>
     <row r="379" spans="1:22">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-      <c r="I379" s="2"/>
-      <c r="J379" s="2" t="s">
+      <c r="C379" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K379" s="2"/>
-      <c r="L379" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M379" s="2" t="s">
+      <c r="K379" s="5"/>
+      <c r="L379" s="7"/>
+      <c r="M379" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N379" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
-      <c r="Q379" s="2"/>
-      <c r="R379" s="2"/>
-      <c r="S379" s="2"/>
-      <c r="T379" s="2"/>
-      <c r="U379" s="2" t="s">
+      <c r="N379" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+      <c r="Q379" s="5"/>
+      <c r="R379" s="5"/>
+      <c r="S379" s="5"/>
+      <c r="T379" s="5"/>
+      <c r="U379" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V379" s="2"/>
+      <c r="V379" s="5"/>
     </row>
     <row r="380" spans="1:22">
       <c r="A380" s="2" t="s">
@@ -34816,44 +34656,42 @@
       <c r="V554" s="9"/>
     </row>
     <row r="555" spans="1:22">
-      <c r="A555" s="2" t="s">
+      <c r="A555" s="5" t="s">
         <v>1724</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B555" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C555" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D555" s="2"/>
-      <c r="E555" s="2"/>
-      <c r="F555" s="2"/>
-      <c r="G555" s="2"/>
-      <c r="H555" s="2"/>
-      <c r="I555" s="2"/>
-      <c r="J555" s="2" t="s">
+      <c r="C555" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D555" s="5"/>
+      <c r="E555" s="5"/>
+      <c r="F555" s="5"/>
+      <c r="G555" s="5"/>
+      <c r="H555" s="5"/>
+      <c r="I555" s="5"/>
+      <c r="J555" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K555" s="2"/>
-      <c r="L555" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M555" s="2" t="s">
+      <c r="K555" s="5"/>
+      <c r="L555" s="7"/>
+      <c r="M555" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N555" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O555" s="2"/>
-      <c r="P555" s="2"/>
-      <c r="Q555" s="2"/>
-      <c r="R555" s="2"/>
-      <c r="S555" s="2"/>
-      <c r="T555" s="2"/>
-      <c r="U555" s="2" t="s">
+      <c r="N555" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O555" s="5"/>
+      <c r="P555" s="5"/>
+      <c r="Q555" s="5"/>
+      <c r="R555" s="5"/>
+      <c r="S555" s="5"/>
+      <c r="T555" s="5"/>
+      <c r="U555" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V555" s="2"/>
+      <c r="V555" s="5"/>
     </row>
     <row r="556" spans="1:22">
       <c r="A556" s="2" t="s">
@@ -34987,9 +34825,7 @@
         <v>667</v>
       </c>
       <c r="K558" s="2"/>
-      <c r="L558" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="L558" s="7"/>
       <c r="M558" s="2" t="s">
         <v>56</v>
       </c>
@@ -35940,44 +35776,42 @@
       </c>
     </row>
     <row r="582" spans="1:22">
-      <c r="A582" s="2" t="s">
+      <c r="A582" s="5" t="s">
         <v>1751</v>
       </c>
-      <c r="B582" s="2" t="s">
+      <c r="B582" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C582" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D582" s="2"/>
-      <c r="E582" s="2"/>
-      <c r="F582" s="2"/>
-      <c r="G582" s="2"/>
-      <c r="H582" s="2"/>
-      <c r="I582" s="2"/>
-      <c r="J582" s="2" t="s">
+      <c r="C582" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D582" s="5"/>
+      <c r="E582" s="5"/>
+      <c r="F582" s="5"/>
+      <c r="G582" s="5"/>
+      <c r="H582" s="5"/>
+      <c r="I582" s="5"/>
+      <c r="J582" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K582" s="2"/>
-      <c r="L582" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="M582" s="2" t="s">
+      <c r="K582" s="5"/>
+      <c r="L582" s="7"/>
+      <c r="M582" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N582" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O582" s="2"/>
-      <c r="P582" s="2"/>
-      <c r="Q582" s="2"/>
-      <c r="R582" s="2"/>
-      <c r="S582" s="2"/>
-      <c r="T582" s="2"/>
-      <c r="U582" s="2" t="s">
+      <c r="N582" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O582" s="5"/>
+      <c r="P582" s="5"/>
+      <c r="Q582" s="5"/>
+      <c r="R582" s="5"/>
+      <c r="S582" s="5"/>
+      <c r="T582" s="5"/>
+      <c r="U582" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V582" s="2"/>
+      <c r="V582" s="5"/>
     </row>
     <row r="583" spans="1:22">
       <c r="A583" s="2" t="s">
